--- a/tacc_tests/development_log.xlsx
+++ b/tacc_tests/development_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghajoshi/Box Sync/Dissertation_Joshi/simulation/tacc_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E79C8-C29C-FC41-B3B9-CD00006FC330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE40C08-EBCA-DC43-8CAF-64612C94C825}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{DD000B40-909C-864E-A99F-042658DEA411}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>tacc_time</t>
   </si>
   <si>
-    <t>simulation/tacc_tests/11_03_1/sim_test_1103.Rdata</t>
-  </si>
-  <si>
     <t>results</t>
   </si>
   <si>
@@ -88,10 +85,16 @@
     <t>simulation/tacc_tests/11_05/sim_test_1105.Rdata</t>
   </si>
   <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>CentOS Linux 7 (Core)</t>
+    <t xml:space="preserve">set.seed(20201106) </t>
+  </si>
+  <si>
+    <t>simulation/tacc_tests/11_06/sim_test_1106.Rdata</t>
+  </si>
+  <si>
+    <t>simulation/tacc_tests/11_03/sim_test_1103.Rdata</t>
+  </si>
+  <si>
+    <t>hr</t>
   </si>
 </sst>
 </file>
@@ -451,16 +454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB12C31-5347-DE4C-9178-94BB3C2C672F}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="68.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="68.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -468,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -486,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -500,7 +502,7 @@
         <v>44138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -519,9 +521,6 @@
       </c>
       <c r="H2">
         <v>117.157</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -532,7 +531,7 @@
         <v>44140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -552,20 +551,56 @@
       <c r="H3">
         <v>347.38900000000001</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>399</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.0543981481481481E-2</v>
+      </c>
+      <c r="H4">
+        <v>2063.1010000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5">
+        <v>399</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <f xml:space="preserve"> (H4/2) *F5</f>
+        <v>206310.1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> H5 / (3600)</f>
+        <v>57.308361111111111</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
@@ -696,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9A5C7-B5F7-4D68-ABC0-837A1A063A44}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -725,16 +760,16 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -742,7 +777,7 @@
         <v>44139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -760,10 +795,10 @@
         <v>96.7</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -771,7 +806,7 @@
         <v>44139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -789,7 +824,7 @@
         <v>510.8</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -797,7 +832,7 @@
         <v>44139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -815,10 +850,10 @@
         <v>3294.45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
